--- a/src/test/resources/test_multiple.xlsx
+++ b/src/test/resources/test_multiple.xlsx
@@ -272,13 +272,13 @@
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>975502.0</v>
+        <v>889182.0</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>815115.3125</v>
+        <v>914770.75</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>361097.0</v>
+        <v>188138.0</v>
       </c>
     </row>
     <row r="3">
@@ -293,13 +293,13 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>784445.0</v>
+        <v>203702.0</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>514558.3125</v>
+        <v>754265.3125</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>262936.0</v>
+        <v>861124.0</v>
       </c>
     </row>
   </sheetData>
@@ -354,13 +354,13 @@
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>47382.0</v>
+        <v>270245.0</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>381.4101257324219</v>
+        <v>533421.75</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>354392.0</v>
+        <v>123410.0</v>
       </c>
     </row>
     <row r="3">
@@ -375,13 +375,13 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>769894.0</v>
+        <v>851954.0</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>193235.515625</v>
+        <v>344267.78125</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>90824.0</v>
+        <v>298359.0</v>
       </c>
     </row>
   </sheetData>
@@ -440,13 +440,13 @@
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>582381.0</v>
+        <v>222746.0</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>368285.96875</v>
+        <v>116392.609375</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>8332.0</v>
+        <v>347667.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/test_multiple.xlsx
+++ b/src/test/resources/test_multiple.xlsx
@@ -19,8 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode=""/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -208,19 +209,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" quotePrefix="false">
       <alignment horizontal="general" vertical="bottom" shrinkToFit="false" wrapText="false" textRotation="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" quotePrefix="false" applyNumberFormat="true">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" quotePrefix="false" applyNumberFormat="true">
       <alignment horizontal="general" vertical="bottom" shrinkToFit="false" wrapText="false" textRotation="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
     <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -229,9 +233,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" tabSelected="true">
+      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="8" customHeight="true"/>
+  <cols>
+    <col min="1" max="1" width="3.25390625" customWidth="true"/>
+    <col min="2" max="2" width="15.453125" customWidth="true"/>
+    <col min="3" max="3" width="8.2734375" customWidth="true"/>
+    <col min="4" max="4" width="11.05859375" customWidth="true"/>
+    <col min="5" max="5" width="9.3828125" customWidth="true"/>
+    <col min="6" max="6" width="11.3046875" customWidth="true"/>
+    <col min="7" max="7" width="19.66796875" customWidth="true"/>
+    <col min="8" max="8" width="19.66796875" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -259,6 +276,21 @@
           <t>long~~~~</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>date2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>dateTime</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -272,13 +304,22 @@
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>889182.0</v>
+        <v>41385.0</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>914770.75</v>
+        <v>295738.875</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>188138.0</v>
+        <v>208787.0</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>45020.0</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>45020.69528284722</v>
+      </c>
+      <c r="H2" s="10" t="n">
+        <v>45020.69528284722</v>
       </c>
     </row>
     <row r="3">
@@ -293,13 +334,22 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>203702.0</v>
+        <v>306765.0</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>754265.3125</v>
+        <v>455219.03125</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>861124.0</v>
+        <v>715353.0</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>45020.0</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>45020.6952828588</v>
+      </c>
+      <c r="H3" s="10" t="n">
+        <v>45020.6952828588</v>
       </c>
     </row>
   </sheetData>
@@ -311,9 +361,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="8" customHeight="true"/>
+  <cols>
+    <col min="1" max="1" width="3.25390625" customWidth="true"/>
+    <col min="2" max="2" width="23.63671875" customWidth="true"/>
+    <col min="3" max="3" width="8.2734375" customWidth="true"/>
+    <col min="4" max="4" width="11.05859375" customWidth="true"/>
+    <col min="5" max="5" width="9.3828125" customWidth="true"/>
+    <col min="6" max="6" width="11.3046875" customWidth="true"/>
+    <col min="7" max="7" width="19.66796875" customWidth="true"/>
+    <col min="8" max="8" width="19.66796875" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -341,6 +404,21 @@
           <t>long~~~~</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>date2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>dateTime</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -354,13 +432,22 @@
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>270245.0</v>
+        <v>546439.0</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>533421.75</v>
+        <v>345885.5625</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>123410.0</v>
+        <v>480987.0</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>45020.0</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>45020.6952828588</v>
+      </c>
+      <c r="H2" s="10" t="n">
+        <v>45020.6952828588</v>
       </c>
     </row>
     <row r="3">
@@ -375,13 +462,22 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>851954.0</v>
+        <v>150976.0</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>344267.78125</v>
+        <v>113105.0625</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>298359.0</v>
+        <v>490072.0</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>45020.0</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>45020.6952828588</v>
+      </c>
+      <c r="H3" s="10" t="n">
+        <v>45020.6952828588</v>
       </c>
     </row>
   </sheetData>
@@ -397,9 +493,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="8" customHeight="true"/>
+  <cols>
+    <col min="1" max="1" width="3.25390625" customWidth="true"/>
+    <col min="2" max="2" width="22.7109375" customWidth="true"/>
+    <col min="3" max="3" width="8.2734375" customWidth="true"/>
+    <col min="4" max="4" width="11.05859375" customWidth="true"/>
+    <col min="5" max="5" width="9.3828125" customWidth="true"/>
+    <col min="6" max="6" width="11.3046875" customWidth="true"/>
+    <col min="7" max="7" width="19.66796875" customWidth="true"/>
+    <col min="8" max="8" width="19.66796875" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -427,6 +536,21 @@
           <t>long~~~~</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>date2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>dateTime</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -440,13 +564,22 @@
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>222746.0</v>
+        <v>928855.0</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>116392.609375</v>
+        <v>179729.28125</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>347667.0</v>
+        <v>242430.0</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>45020.0</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>45020.6952828588</v>
+      </c>
+      <c r="H2" s="10" t="n">
+        <v>45020.6952828588</v>
       </c>
     </row>
   </sheetData>
